--- a/文档/积分规则.xlsx
+++ b/文档/积分规则.xlsx
@@ -221,6 +221,27 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,28 +255,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +561,7 @@
   <dimension ref="A2:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -570,198 +570,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="3"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="10"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:15" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="10"/>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:15" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="10"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="13" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1"/>
@@ -776,18 +776,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="O3:O7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="O3:O7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
